--- a/ExcelTable/String.xlsx
+++ b/ExcelTable/String.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\BoardGame\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0549F921-1E4F-4C02-A23A-16DD427C68A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7429E247-7BAC-40E9-A953-06942A57D7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,219 @@
   </si>
   <si>
     <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 생성에 실패하였습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방을 찾을 수 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방이 가득 찼습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 로그인 중입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원이 부족해 시작이 불가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room not found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room is full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not enough players to start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Already logged in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to create room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 접속에 실패하였습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 턴이 아닙니다.</t>
+  </si>
+  <si>
+    <t>이동을 하였기에 아이템을 사용하지 못합니다.</t>
+  </si>
+  <si>
+    <t>이동 전에만 사용 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽을 선택하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to connect to server</t>
+  </si>
+  <si>
+    <t>Game over</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>Game start</t>
+  </si>
+  <si>
+    <t>It’s not your turn</t>
+  </si>
+  <si>
+    <t>You cannot use an item after moving</t>
+  </si>
+  <si>
+    <t>Can only be used before moving</t>
+  </si>
+  <si>
+    <t>Please select a wall</t>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Create Room</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>참가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말을 움직이세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please move your piece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀방 참가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join Private Room</t>
+  </si>
+  <si>
+    <t>공개방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비공개 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽바둑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall Go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로고침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,16 +325,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,20 +610,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" customWidth="1"/>
     <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -430,39 +637,425 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4">
+        <v>1002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5">
+        <v>1003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6">
+        <v>1004</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7">
+        <v>1005</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8">
+        <v>1006</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9">
+        <v>1007</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10">
+        <v>1008</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11">
+        <v>1009</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12">
+        <v>1010</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13">
+        <v>1011</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1012</v>
+      </c>
+      <c r="B14">
+        <v>1012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1013</v>
+      </c>
+      <c r="B15">
+        <v>1013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1014</v>
+      </c>
+      <c r="B16">
+        <v>1014</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1015</v>
+      </c>
+      <c r="B17">
+        <v>1015</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1016</v>
+      </c>
+      <c r="B18">
+        <v>1016</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1017</v>
+      </c>
+      <c r="B19">
+        <v>1017</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1018</v>
+      </c>
+      <c r="B20">
+        <v>1018</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1019</v>
+      </c>
+      <c r="B21">
+        <v>1019</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1020</v>
+      </c>
+      <c r="B22">
+        <v>1020</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1021</v>
+      </c>
+      <c r="B23">
+        <v>1021</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1022</v>
+      </c>
+      <c r="B24">
+        <v>1022</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>1023</v>
+      </c>
+      <c r="B25">
+        <v>1023</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1024</v>
+      </c>
+      <c r="B26">
+        <v>1024</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>1025</v>
+      </c>
+      <c r="B27">
+        <v>1025</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>1026</v>
+      </c>
+      <c r="B28">
+        <v>1026</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>1027</v>
+      </c>
+      <c r="B29">
+        <v>1027</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1028</v>
+      </c>
+      <c r="B30">
+        <v>1028</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>1029</v>
+      </c>
+      <c r="B31">
+        <v>1029</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -475,16 +1068,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -512,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -526,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -540,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
